--- a/docs/Competitors.xlsx
+++ b/docs/Competitors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="21015" windowHeight="9945" activeTab="2"/>
@@ -9,15 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Alexa" sheetId="3" r:id="rId3"/>
+    <sheet name="Features" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="239">
   <si>
     <t>Tiny URL</t>
   </si>
@@ -731,9 +731,6 @@
   </si>
   <si>
     <t>Gmail Gadget</t>
-  </si>
-  <si>
-    <t>Link</t>
   </si>
   <si>
     <t>tiny.cc</t>
@@ -1085,38 +1082,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:J10"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Column1" dataDxfId="23"/>
-    <tableColumn id="2" name="Tiny URL" dataDxfId="22"/>
-    <tableColumn id="3" name="SnipURL" dataDxfId="21"/>
-    <tableColumn id="4" name="Bit.ly" dataDxfId="20"/>
-    <tableColumn id="5" name="Metamark" dataDxfId="19"/>
-    <tableColumn id="6" name="is.gd" dataDxfId="18"/>
-    <tableColumn id="7" name="cli.gs" dataDxfId="17"/>
-    <tableColumn id="10" name="tr.im" dataDxfId="16"/>
-    <tableColumn id="8" name="Tweetburner" dataDxfId="15"/>
-    <tableColumn id="9" name="Go2.me" dataDxfId="14"/>
+    <tableColumn id="1" name="Column1" dataDxfId="21"/>
+    <tableColumn id="2" name="Tiny URL" dataDxfId="20"/>
+    <tableColumn id="3" name="SnipURL" dataDxfId="19"/>
+    <tableColumn id="4" name="Bit.ly" dataDxfId="18"/>
+    <tableColumn id="5" name="Metamark" dataDxfId="17"/>
+    <tableColumn id="6" name="is.gd" dataDxfId="16"/>
+    <tableColumn id="7" name="cli.gs" dataDxfId="15"/>
+    <tableColumn id="10" name="tr.im" dataDxfId="14"/>
+    <tableColumn id="8" name="Tweetburner" dataDxfId="13"/>
+    <tableColumn id="9" name="Go2.me" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="blank" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J10"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Column1" dataDxfId="11"/>
-    <tableColumn id="2" name="Tiny URL" dataDxfId="10"/>
-    <tableColumn id="3" name="SnipURL" dataDxfId="9"/>
-    <tableColumn id="4" name="Bit.ly" dataDxfId="8"/>
-    <tableColumn id="5" name="Metamark" dataDxfId="7"/>
-    <tableColumn id="6" name="is.gd" dataDxfId="6"/>
-    <tableColumn id="7" name="cli.gs" dataDxfId="5"/>
-    <tableColumn id="10" name="tr.im" dataDxfId="4"/>
-    <tableColumn id="8" name="Tweetburner" dataDxfId="3"/>
-    <tableColumn id="9" name="Go2.me" dataDxfId="2"/>
+    <tableColumn id="1" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" name="Tiny URL" dataDxfId="8"/>
+    <tableColumn id="3" name="SnipURL" dataDxfId="7"/>
+    <tableColumn id="4" name="Bit.ly" dataDxfId="6"/>
+    <tableColumn id="5" name="Metamark" dataDxfId="5"/>
+    <tableColumn id="6" name="is.gd" dataDxfId="4"/>
+    <tableColumn id="7" name="cli.gs" dataDxfId="3"/>
+    <tableColumn id="10" name="tr.im" dataDxfId="2"/>
+    <tableColumn id="8" name="Tweetburner" dataDxfId="1"/>
+    <tableColumn id="9" name="Go2.me" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="blank" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1830,1629 +1827,976 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="47" style="4" customWidth="1"/>
-    <col min="4" max="4" width="70.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>238</v>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
       </c>
       <c r="I1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
         <v>760</v>
       </c>
-      <c r="C2" s="4" t="str">
-        <f>"&lt;a href="""&amp;A2&amp;"""&gt;"&amp;A2&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href="tinyurl.com"&gt;tinyurl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;TEXT(B2,"#,###")&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="tinyurl.com"&gt;tinyurl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;760&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>25</v>
       </c>
-      <c r="G2">
+      <c r="E2">
         <v>2002</v>
       </c>
-      <c r="H2" s="4">
+      <c r="F2" s="4">
         <v>145000000</v>
       </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" t="s">
         <v>117</v>
       </c>
-      <c r="M2">
+      <c r="K2">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4">
         <v>9954</v>
       </c>
-      <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C67" si="0">"&lt;a href="""&amp;A3&amp;"""&gt;"&amp;A3&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href="snipurl.com"&gt;snipurl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D67" si="1">"&lt;tr&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;TEXT(B3,"#,###")&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="snipurl.com"&gt;snipurl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;9,954&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>24</v>
       </c>
-      <c r="G3">
+      <c r="E3">
         <v>2001</v>
       </c>
-      <c r="H3" s="2">
+      <c r="F3" s="2">
         <v>19252987</v>
       </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>110</v>
+      </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" t="s">
         <v>118</v>
       </c>
-      <c r="M3">
+      <c r="K3">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="4">
         <v>13447</v>
       </c>
-      <c r="C4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="bit.ly"&gt;bit.ly&lt;/a&gt;</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="bit.ly"&gt;bit.ly&lt;/a&gt;&lt;/td&gt;&lt;td&gt;13,447&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
         <v>18</v>
       </c>
-      <c r="G4">
+      <c r="E4">
         <v>2008</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" t="s">
         <v>119</v>
       </c>
-      <c r="M4">
+      <c r="K4">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="4">
         <v>20305</v>
       </c>
-      <c r="C5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="metamark.net"&gt;metamark.net&lt;/a&gt;</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="metamark.net"&gt;metamark.net&lt;/a&gt;&lt;/td&gt;&lt;td&gt;20,305&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="E5">
         <v>2002</v>
       </c>
-      <c r="H5" s="4">
+      <c r="F5" s="4">
         <v>22399425</v>
       </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
+        <v>120</v>
+      </c>
       <c r="J5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" t="s">
         <v>121</v>
       </c>
-      <c r="M5">
+      <c r="K5">
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>25184</v>
       </c>
-      <c r="C6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="is.gd"&gt;is.gd&lt;/a&gt;</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="is.gd"&gt;is.gd&lt;/a&gt;&lt;/td&gt;&lt;td&gt;25,184&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
         <v>17</v>
       </c>
-      <c r="G6">
+      <c r="E6">
         <v>2008</v>
       </c>
-      <c r="H6" s="5">
+      <c r="F6" s="5">
         <v>3506555</v>
       </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>114</v>
+      </c>
       <c r="J6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" t="s">
         <v>116</v>
       </c>
-      <c r="M6">
+      <c r="K6">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="4">
         <v>29157</v>
       </c>
-      <c r="C7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="notlong.com"&gt;notlong.com&lt;/a&gt;</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="notlong.com"&gt;notlong.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;29,157&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="F7">
+      <c r="D7">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="E7">
         <v>2002</v>
       </c>
-      <c r="J7" t="s">
+      <c r="H7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4">
         <v>35463</v>
       </c>
-      <c r="C8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="cli.gs"&gt;cli.gs&lt;/a&gt;</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="cli.gs"&gt;cli.gs&lt;/a&gt;&lt;/td&gt;&lt;td&gt;35,463&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="E8">
         <v>2008</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>123</v>
+      </c>
       <c r="J8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L8" t="s">
         <v>124</v>
       </c>
-      <c r="M8">
+      <c r="K8">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" s="4">
         <v>41574</v>
       </c>
-      <c r="C9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="tiny.cc"&gt;tiny.cc&lt;/a&gt;</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="tiny.cc"&gt;tiny.cc&lt;/a&gt;&lt;/td&gt;&lt;td&gt;41,574&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="G9">
+      <c r="E9">
         <v>2006</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
         <v>50379</v>
       </c>
-      <c r="C10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="budurl.com"&gt;budurl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="budurl.com"&gt;budurl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;50,379&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
         <v>22</v>
       </c>
-      <c r="G10">
+      <c r="E10">
         <v>2008</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="H10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
       <c r="J10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" t="s">
         <v>126</v>
       </c>
-      <c r="M10">
+      <c r="K10">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="4">
         <v>64024</v>
       </c>
-      <c r="C11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="doiop.com"&gt;doiop.com&lt;/a&gt;</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="doiop.com"&gt;doiop.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;64,024&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="4">
         <v>72503</v>
       </c>
-      <c r="C12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="zi.ma"&gt;zi.ma&lt;/a&gt;</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="zi.ma"&gt;zi.ma&lt;/a&gt;&lt;/td&gt;&lt;td&gt;72,503&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>2008</v>
       </c>
       <c r="F12">
-        <v>19</v>
-      </c>
-      <c r="G12">
-        <v>2008</v>
-      </c>
-      <c r="H12">
         <v>34141</v>
       </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
       <c r="J12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" t="s">
         <v>128</v>
       </c>
-      <c r="M12">
+      <c r="K12">
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="4">
         <v>76707</v>
       </c>
-      <c r="C13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="moourl.com"&gt;moourl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="moourl.com"&gt;moourl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;76,707&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="G13">
+      <c r="E13">
         <v>2007</v>
       </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>82108</v>
       </c>
-      <c r="C14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="tr.im"&gt;tr.im&lt;/a&gt;</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="tr.im"&gt;tr.im&lt;/a&gt;&lt;/td&gt;&lt;td&gt;82,108&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
         <v>17</v>
       </c>
-      <c r="G14">
+      <c r="E14">
         <v>2008</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
       <c r="J14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" t="s">
         <v>131</v>
       </c>
-      <c r="M14">
+      <c r="K14">
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="4">
         <v>102345</v>
       </c>
-      <c r="C15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="tweetburner.com"&gt;tweetburner.com&lt;/a&gt;</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="tweetburner.com"&gt;tweetburner.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;102,345&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="4">
         <v>110370</v>
       </c>
-      <c r="C16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="shrink2one.com"&gt;shrink2one.com&lt;/a&gt;</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="shrink2one.com"&gt;shrink2one.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;110,370&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="4">
         <v>119088</v>
       </c>
-      <c r="C17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="poprl.com"&gt;poprl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="poprl.com"&gt;poprl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;119,088&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="4">
         <v>129205</v>
       </c>
-      <c r="C18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="adjix.com"&gt;adjix.com&lt;/a&gt;</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="adjix.com"&gt;adjix.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;129,205&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="4">
         <v>146635</v>
       </c>
-      <c r="C19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="url.ie"&gt;url.ie&lt;/a&gt;</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="url.ie"&gt;url.ie&lt;/a&gt;&lt;/td&gt;&lt;td&gt;146,635&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="4">
         <v>157130</v>
       </c>
-      <c r="C20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="urlhawk.com"&gt;urlhawk.com&lt;/a&gt;</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="urlhawk.com"&gt;urlhawk.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;157,130&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <v>169749</v>
       </c>
-      <c r="C21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="sqrl.it (iterasi.net)"&gt;sqrl.it (iterasi.net)&lt;/a&gt;</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="sqrl.it (iterasi.net)"&gt;sqrl.it (iterasi.net)&lt;/a&gt;&lt;/td&gt;&lt;td&gt;169,749&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="4">
         <v>210521</v>
       </c>
-      <c r="C22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="fon.gs"&gt;fon.gs&lt;/a&gt;</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="fon.gs"&gt;fon.gs&lt;/a&gt;&lt;/td&gt;&lt;td&gt;210,521&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="4">
         <v>232415</v>
       </c>
-      <c r="C23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="dwarfurl.com"&gt;dwarfurl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="dwarfurl.com"&gt;dwarfurl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;232,415&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="4">
         <v>254351</v>
       </c>
-      <c r="C24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="fexr.com"&gt;fexr.com&lt;/a&gt;</v>
-      </c>
-      <c r="D24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="fexr.com"&gt;fexr.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;254,351&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="4">
         <v>295823</v>
       </c>
-      <c r="C25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="linkbun.ch"&gt;linkbun.ch&lt;/a&gt;</v>
-      </c>
-      <c r="D25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="linkbun.ch"&gt;linkbun.ch&lt;/a&gt;&lt;/td&gt;&lt;td&gt;295,823&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="4">
         <v>342047</v>
       </c>
-      <c r="C26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="ilix.in"&gt;ilix.in&lt;/a&gt;</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="ilix.in"&gt;ilix.in&lt;/a&gt;&lt;/td&gt;&lt;td&gt;342,047&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>97</v>
       </c>
       <c r="B27" s="4">
         <v>360810</v>
       </c>
-      <c r="C27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="shorl.com"&gt;shorl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="shorl.com"&gt;shorl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;360,810&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="4">
         <v>381068</v>
       </c>
-      <c r="C28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="icanhaz.com"&gt;icanhaz.com&lt;/a&gt;</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="icanhaz.com"&gt;icanhaz.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;381,068&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="4">
         <v>397196</v>
       </c>
-      <c r="C29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="w3t.org"&gt;w3t.org&lt;/a&gt;</v>
-      </c>
-      <c r="D29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="w3t.org"&gt;w3t.org&lt;/a&gt;&lt;/td&gt;&lt;td&gt;397,196&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="4">
         <v>399737</v>
       </c>
-      <c r="C30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="go2.me"&gt;go2.me&lt;/a&gt;</v>
-      </c>
-      <c r="D30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="go2.me"&gt;go2.me&lt;/a&gt;&lt;/td&gt;&lt;td&gt;399,737&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
         <v>16</v>
       </c>
-      <c r="G30">
+      <c r="E30">
         <v>2008</v>
       </c>
-      <c r="H30" s="4">
+      <c r="F30" s="4">
         <v>934</v>
       </c>
-      <c r="K30" t="s">
+      <c r="I30" t="s">
         <v>133</v>
       </c>
-      <c r="M30">
+      <c r="K30">
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="4">
         <v>431317</v>
       </c>
-      <c r="C31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="lin.cr"&gt;lin.cr&lt;/a&gt;</v>
-      </c>
-      <c r="D31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="lin.cr"&gt;lin.cr&lt;/a&gt;&lt;/td&gt;&lt;td&gt;431,317&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="4">
         <v>441860</v>
       </c>
-      <c r="C32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="urlBorg.com"&gt;urlBorg.com&lt;/a&gt;</v>
-      </c>
-      <c r="D32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="urlBorg.com"&gt;urlBorg.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;441,860&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="4">
         <v>443884</v>
       </c>
-      <c r="C33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="zipmyurl.com"&gt;zipmyurl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D33" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="zipmyurl.com"&gt;zipmyurl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;443,884&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="4">
         <v>464698</v>
       </c>
-      <c r="C34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="spedr.com"&gt;spedr.com&lt;/a&gt;</v>
-      </c>
-      <c r="D34" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="spedr.com"&gt;spedr.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;464,698&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="4">
         <v>465186</v>
       </c>
-      <c r="C35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="kissa.be"&gt;kissa.be&lt;/a&gt;</v>
-      </c>
-      <c r="D35" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="kissa.be"&gt;kissa.be&lt;/a&gt;&lt;/td&gt;&lt;td&gt;465,186&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="4">
         <v>532887</v>
       </c>
-      <c r="C36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="twurl.cc"&gt;twurl.cc&lt;/a&gt;</v>
-      </c>
-      <c r="D36" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="twurl.cc"&gt;twurl.cc&lt;/a&gt;&lt;/td&gt;&lt;td&gt;532,887&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+    </row>
+    <row r="37" spans="1:6" ht="15.75">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="4">
         <v>538706</v>
       </c>
-      <c r="C37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="idek.net"&gt;idek.net&lt;/a&gt;</v>
-      </c>
-      <c r="D37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="idek.net"&gt;idek.net&lt;/a&gt;&lt;/td&gt;&lt;td&gt;538,706&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="4">
         <v>538706</v>
       </c>
-      <c r="C38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="idek.net"&gt;idek.net&lt;/a&gt;</v>
-      </c>
-      <c r="D38" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="idek.net"&gt;idek.net&lt;/a&gt;&lt;/td&gt;&lt;td&gt;538,706&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="4">
         <v>592148</v>
       </c>
-      <c r="C39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="decentURL.com"&gt;decentURL.com&lt;/a&gt;</v>
-      </c>
-      <c r="D39" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="decentURL.com"&gt;decentURL.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;592,148&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>51</v>
       </c>
       <c r="B40" s="4">
         <v>615222</v>
       </c>
-      <c r="C40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="shrinkster.com"&gt;shrinkster.com&lt;/a&gt;</v>
-      </c>
-      <c r="D40" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="shrinkster.com"&gt;shrinkster.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;615,222&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>96</v>
       </c>
       <c r="B41" s="4">
         <v>679039</v>
       </c>
-      <c r="C41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="makeashorterlink.com"&gt;makeashorterlink.com&lt;/a&gt;</v>
-      </c>
-      <c r="D41" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="makeashorterlink.com"&gt;makeashorterlink.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;679,039&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="4">
         <v>718643</v>
       </c>
-      <c r="C42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="go2cut.com"&gt;go2cut.com&lt;/a&gt;</v>
-      </c>
-      <c r="D42" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="go2cut.com"&gt;go2cut.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;718,643&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="F42" s="4">
         <v>1053</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="4">
         <v>727297</v>
       </c>
-      <c r="C43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="qicute.com"&gt;qicute.com&lt;/a&gt;</v>
-      </c>
-      <c r="D43" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="qicute.com"&gt;qicute.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;727,297&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="4">
         <v>880987</v>
       </c>
-      <c r="C44" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="sharetabs.com"&gt;sharetabs.com&lt;/a&gt;</v>
-      </c>
-      <c r="D44" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="sharetabs.com"&gt;sharetabs.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;880,987&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="4">
         <v>975522</v>
       </c>
-      <c r="C45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="u.mavrev.com"&gt;u.mavrev.com&lt;/a&gt;</v>
-      </c>
-      <c r="D45" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="u.mavrev.com"&gt;u.mavrev.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;975,522&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="4">
         <v>1057021</v>
       </c>
-      <c r="C46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="shrinkify.com"&gt;shrinkify.com&lt;/a&gt;</v>
-      </c>
-      <c r="D46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="shrinkify.com"&gt;shrinkify.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,057,021&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="4">
         <v>1073074</v>
       </c>
-      <c r="C47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="urlzen.com"&gt;urlzen.com&lt;/a&gt;</v>
-      </c>
-      <c r="D47" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="urlzen.com"&gt;urlzen.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,073,074&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>61</v>
       </c>
       <c r="B48" s="4">
         <v>1123099</v>
       </c>
-      <c r="C48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="shrunkin.com"&gt;shrunkin.com&lt;/a&gt;</v>
-      </c>
-      <c r="D48" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="shrunkin.com"&gt;shrunkin.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,123,099&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>89</v>
       </c>
       <c r="B49" s="4">
         <v>1195967</v>
       </c>
-      <c r="C49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="xaddr.com"&gt;xaddr.com&lt;/a&gt;</v>
-      </c>
-      <c r="D49" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="xaddr.com"&gt;xaddr.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,195,967&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="4">
         <v>1219125</v>
       </c>
-      <c r="C50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="short.to"&gt;short.to&lt;/a&gt;</v>
-      </c>
-      <c r="D50" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="short.to"&gt;short.to&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,219,125&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>63</v>
       </c>
       <c r="B51" s="4">
         <v>1244681</v>
       </c>
-      <c r="C51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="dfl8.me"&gt;dfl8.me&lt;/a&gt;</v>
-      </c>
-      <c r="D51" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="dfl8.me"&gt;dfl8.me&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,244,681&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>98</v>
       </c>
       <c r="B52" s="4">
         <v>1260352</v>
       </c>
-      <c r="C52" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="hurl.ws"&gt;hurl.ws&lt;/a&gt;</v>
-      </c>
-      <c r="D52" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="hurl.ws"&gt;hurl.ws&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,260,352&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>90</v>
       </c>
       <c r="B53" s="4">
         <v>1338753</v>
       </c>
-      <c r="C53" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="urlcover.com"&gt;urlcover.com&lt;/a&gt;</v>
-      </c>
-      <c r="D53" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="urlcover.com"&gt;urlcover.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,338,753&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>76</v>
       </c>
       <c r="B54" s="4">
         <v>1348694</v>
       </c>
-      <c r="C54" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="memurl.com"&gt;memurl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D54" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="memurl.com"&gt;memurl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,348,694&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="4">
         <v>1391497</v>
       </c>
-      <c r="C55" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="ln-s.net"&gt;ln-s.net&lt;/a&gt;</v>
-      </c>
-      <c r="D55" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="ln-s.net"&gt;ln-s.net&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,391,497&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="4">
         <v>1454061</v>
       </c>
-      <c r="C56" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="twirl.at"&gt;twirl.at&lt;/a&gt;</v>
-      </c>
-      <c r="D56" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="twirl.at"&gt;twirl.at&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,454,061&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>92</v>
       </c>
       <c r="B57" s="4">
         <v>1687357</v>
       </c>
-      <c r="C57" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="4url.cc"&gt;4url.cc&lt;/a&gt;</v>
-      </c>
-      <c r="D57" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="4url.cc"&gt;4url.cc&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,687,357&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="4">
         <v>1785503</v>
       </c>
-      <c r="C58" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="shorterlink.co.uk"&gt;shorterlink.co.uk&lt;/a&gt;</v>
-      </c>
-      <c r="D58" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="shorterlink.co.uk"&gt;shorterlink.co.uk&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,785,503&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="4">
         <v>1869137</v>
       </c>
-      <c r="C59" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="fire.to"&gt;fire.to&lt;/a&gt;</v>
-      </c>
-      <c r="D59" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="fire.to"&gt;fire.to&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,869,137&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>77</v>
       </c>
       <c r="B60" s="4">
         <v>1896763</v>
       </c>
-      <c r="C60" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="weturl.com"&gt;weturl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D60" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="weturl.com"&gt;weturl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,896,763&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>88</v>
       </c>
       <c r="B61" s="4">
         <v>1917358</v>
       </c>
-      <c r="C61" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="yweb.com"&gt;yweb.com&lt;/a&gt;</v>
-      </c>
-      <c r="D61" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="yweb.com"&gt;yweb.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;1,917,358&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>81</v>
       </c>
       <c r="B62" s="4">
         <v>2608132</v>
       </c>
-      <c r="C62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="nsfw.in"&gt;nsfw.in&lt;/a&gt;</v>
-      </c>
-      <c r="D62" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="nsfw.in"&gt;nsfw.in&lt;/a&gt;&lt;/td&gt;&lt;td&gt;2,608,132&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="I62" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="4">
         <v>2650256</v>
       </c>
-      <c r="C63" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="bloat.me"&gt;bloat.me&lt;/a&gt;</v>
-      </c>
-      <c r="D63" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="bloat.me"&gt;bloat.me&lt;/a&gt;&lt;/td&gt;&lt;td&gt;2,650,256&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+    </row>
+    <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B64" s="4">
         <v>2732550</v>
       </c>
-      <c r="C64" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="hex.io"&gt;hex.io&lt;/a&gt;</v>
-      </c>
-      <c r="D64" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="hex.io"&gt;hex.io&lt;/a&gt;&lt;/td&gt;&lt;td&gt;2,732,550&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>79</v>
       </c>
       <c r="B65" s="4">
         <v>3096490</v>
       </c>
-      <c r="C65" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="krunchd.com/krunch"&gt;krunchd.com/krunch&lt;/a&gt;</v>
-      </c>
-      <c r="D65" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="krunchd.com/krunch"&gt;krunchd.com/krunch&lt;/a&gt;&lt;/td&gt;&lt;td&gt;3,096,490&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
       <c r="B66" s="4">
         <v>3132432</v>
       </c>
-      <c r="C66" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="thnlnk.com"&gt;thnlnk.com&lt;/a&gt;</v>
-      </c>
-      <c r="D66" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="thnlnk.com"&gt;thnlnk.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;3,132,432&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>46</v>
       </c>
       <c r="B67" s="4">
         <v>3842116</v>
       </c>
-      <c r="C67" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="notifyurl.com"&gt;notifyurl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D67" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="notifyurl.com"&gt;notifyurl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;3,842,116&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:2" ht="15.75">
       <c r="A68" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="4">
         <v>3896758</v>
       </c>
-      <c r="C68" s="4" t="str">
-        <f t="shared" ref="C68:C82" si="2">"&lt;a href="""&amp;A68&amp;"""&gt;"&amp;A68&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href="QLNK.net"&gt;QLNK.net&lt;/a&gt;</v>
-      </c>
-      <c r="D68" s="4" t="str">
-        <f t="shared" ref="D68:D82" si="3">"&lt;tr&gt;&lt;td&gt;"&amp;C68&amp;"&lt;/td&gt;&lt;td&gt;"&amp;TEXT(B68,"#,###")&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="QLNK.net"&gt;QLNK.net&lt;/a&gt;&lt;/td&gt;&lt;td&gt;3,896,758&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="4">
         <v>4212588</v>
       </c>
-      <c r="C69" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="hurl.me"&gt;hurl.me&lt;/a&gt;</v>
-      </c>
-      <c r="D69" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="hurl.me"&gt;hurl.me&lt;/a&gt;&lt;/td&gt;&lt;td&gt;4,212,588&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="4">
         <v>4466233</v>
       </c>
-      <c r="C70" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="shrt.st"&gt;shrt.st&lt;/a&gt;</v>
-      </c>
-      <c r="D70" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="shrt.st"&gt;shrt.st&lt;/a&gt;&lt;/td&gt;&lt;td&gt;4,466,233&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="4">
         <v>5150742</v>
       </c>
-      <c r="C71" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="parv.us"&gt;parv.us&lt;/a&gt;</v>
-      </c>
-      <c r="D71" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="parv.us"&gt;parv.us&lt;/a&gt;&lt;/td&gt;&lt;td&gt;5,150,742&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="4">
         <v>5788037</v>
       </c>
-      <c r="C72" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="makeitbrief.com"&gt;makeitbrief.com&lt;/a&gt;</v>
-      </c>
-      <c r="D72" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="makeitbrief.com"&gt;makeitbrief.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;5,788,037&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+    </row>
+    <row r="73" spans="1:2" ht="15.75">
       <c r="A73" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B73" s="4">
         <v>7376857</v>
       </c>
-      <c r="C73" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="eweri.com"&gt;eweri.com&lt;/a&gt;</v>
-      </c>
-      <c r="D73" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="eweri.com"&gt;eweri.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;7,376,857&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
       <c r="B74" s="4">
         <v>7521329</v>
       </c>
-      <c r="C74" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="smarturl.eu"&gt;smarturl.eu&lt;/a&gt;</v>
-      </c>
-      <c r="D74" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="smarturl.eu"&gt;smarturl.eu&lt;/a&gt;&lt;/td&gt;&lt;td&gt;7,521,329&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="4">
         <v>8203906</v>
       </c>
-      <c r="C75" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="urlot.com"&gt;urlot.com&lt;/a&gt;</v>
-      </c>
-      <c r="D75" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="urlot.com"&gt;urlot.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;8,203,906&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>91</v>
       </c>
       <c r="B76" s="4">
         <v>8454596</v>
       </c>
-      <c r="C76" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="muhlink.org"&gt;muhlink.org&lt;/a&gt;</v>
-      </c>
-      <c r="D76" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="muhlink.org"&gt;muhlink.org&lt;/a&gt;&lt;/td&gt;&lt;td&gt;8,454,596&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="4">
         <v>9105550</v>
       </c>
-      <c r="C77" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="hosturl.com"&gt;hosturl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D77" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="hosturl.com"&gt;hosturl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;9,105,550&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="4">
         <v>10037496</v>
       </c>
-      <c r="C78" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="tinyuri.ca"&gt;tinyuri.ca&lt;/a&gt;</v>
-      </c>
-      <c r="D78" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="tinyuri.ca"&gt;tinyuri.ca&lt;/a&gt;&lt;/td&gt;&lt;td&gt;10,037,496&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>54</v>
       </c>
       <c r="B79" s="4">
         <v>12271428</v>
       </c>
-      <c r="C79" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="voomr.com"&gt;voomr.com&lt;/a&gt;</v>
-      </c>
-      <c r="D79" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="voomr.com"&gt;voomr.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;12,271,428&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
       <c r="B80" s="4">
         <v>12482040</v>
       </c>
-      <c r="C80" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="url9.com"&gt;url9.com&lt;/a&gt;</v>
-      </c>
-      <c r="D80" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="url9.com"&gt;url9.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;12,482,040&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>47</v>
       </c>
       <c r="B81" s="4">
         <v>12730544</v>
       </c>
-      <c r="C81" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="plumurl.com"&gt;plumurl.com&lt;/a&gt;</v>
-      </c>
-      <c r="D81" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="plumurl.com"&gt;plumurl.com&lt;/a&gt;&lt;/td&gt;&lt;td&gt;12,730,544&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="4">
         <v>17685933</v>
-      </c>
-      <c r="C82" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="ix.lt"&gt;ix.lt&lt;/a&gt;</v>
-      </c>
-      <c r="D82" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href="ix.lt"&gt;ix.lt&lt;/a&gt;&lt;/td&gt;&lt;td&gt;17,685,933&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Competitors.xlsx
+++ b/docs/Competitors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="21015" windowHeight="9945" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19440" windowHeight="9945" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,10 @@
     <sheet name="Alexa" sheetId="3" r:id="rId3"/>
     <sheet name="Features" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">Features!$1:$1</definedName>
+  </definedNames>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1082,38 +1085,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
   <autoFilter ref="A1:J10"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Column1" dataDxfId="21"/>
-    <tableColumn id="2" name="Tiny URL" dataDxfId="20"/>
-    <tableColumn id="3" name="SnipURL" dataDxfId="19"/>
-    <tableColumn id="4" name="Bit.ly" dataDxfId="18"/>
-    <tableColumn id="5" name="Metamark" dataDxfId="17"/>
-    <tableColumn id="6" name="is.gd" dataDxfId="16"/>
-    <tableColumn id="7" name="cli.gs" dataDxfId="15"/>
-    <tableColumn id="10" name="tr.im" dataDxfId="14"/>
-    <tableColumn id="8" name="Tweetburner" dataDxfId="13"/>
-    <tableColumn id="9" name="Go2.me" dataDxfId="12"/>
+    <tableColumn id="1" name="Column1" dataDxfId="23"/>
+    <tableColumn id="2" name="Tiny URL" dataDxfId="22"/>
+    <tableColumn id="3" name="SnipURL" dataDxfId="21"/>
+    <tableColumn id="4" name="Bit.ly" dataDxfId="20"/>
+    <tableColumn id="5" name="Metamark" dataDxfId="19"/>
+    <tableColumn id="6" name="is.gd" dataDxfId="18"/>
+    <tableColumn id="7" name="cli.gs" dataDxfId="17"/>
+    <tableColumn id="10" name="tr.im" dataDxfId="16"/>
+    <tableColumn id="8" name="Tweetburner" dataDxfId="15"/>
+    <tableColumn id="9" name="Go2.me" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="blank" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
   <autoFilter ref="A1:J10"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Column1" dataDxfId="9"/>
-    <tableColumn id="2" name="Tiny URL" dataDxfId="8"/>
-    <tableColumn id="3" name="SnipURL" dataDxfId="7"/>
-    <tableColumn id="4" name="Bit.ly" dataDxfId="6"/>
-    <tableColumn id="5" name="Metamark" dataDxfId="5"/>
-    <tableColumn id="6" name="is.gd" dataDxfId="4"/>
-    <tableColumn id="7" name="cli.gs" dataDxfId="3"/>
-    <tableColumn id="10" name="tr.im" dataDxfId="2"/>
-    <tableColumn id="8" name="Tweetburner" dataDxfId="1"/>
-    <tableColumn id="9" name="Go2.me" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1" dataDxfId="11"/>
+    <tableColumn id="2" name="Tiny URL" dataDxfId="10"/>
+    <tableColumn id="3" name="SnipURL" dataDxfId="9"/>
+    <tableColumn id="4" name="Bit.ly" dataDxfId="8"/>
+    <tableColumn id="5" name="Metamark" dataDxfId="7"/>
+    <tableColumn id="6" name="is.gd" dataDxfId="6"/>
+    <tableColumn id="7" name="cli.gs" dataDxfId="5"/>
+    <tableColumn id="10" name="tr.im" dataDxfId="4"/>
+    <tableColumn id="8" name="Tweetburner" dataDxfId="3"/>
+    <tableColumn id="9" name="Go2.me" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="blank" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1829,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -2808,10 +2811,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" sqref="A1:IV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4065,7 +4074,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>